--- a/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>6.284857069564539</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2831070313908791</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1290186152407841</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.1258124281252135</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.151540561206611</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>9.302277786034631</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.4251153650967358</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2169265038605571</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.4772852046621503</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.839233191721846</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
@@ -552,19 +552,19 @@
         <v>0.1041095890410959</v>
       </c>
       <c r="D3" t="n">
-        <v>120521.1601314887</v>
+        <v>120402.5964248481</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02459259754199036</v>
+        <v>0.01905326443683382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1755489009731206</v>
+        <v>0.1983945371478865</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6252168025558207</v>
+        <v>-1.589223172820981</v>
       </c>
       <c r="H3" t="n">
-        <v>9.302277786034631</v>
+        <v>17.86714729572637</v>
       </c>
       <c r="I3" t="n">
         <v>-0.4251153650967358</v>
@@ -628,19 +628,19 @@
         <v>0.2767123287671233</v>
       </c>
       <c r="D5" t="n">
-        <v>121971.7930448281</v>
+        <v>121968.407769422</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.003415564035059608</v>
+        <v>-0.003556305241997975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2347015423726667</v>
+        <v>0.2353462284745418</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.110615933538318</v>
+        <v>-1.131481576085093</v>
       </c>
       <c r="H5" t="n">
-        <v>12.00150659229617</v>
+        <v>12.18325821204666</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4301369863013699</v>
       </c>
       <c r="D7" t="n">
-        <v>123284.8526701849</v>
+        <v>123282.7130233925</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01689985638531592</v>
+        <v>-0.01743438741688789</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2511545195383393</v>
+        <v>0.2554441472190375</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9859918795724695</v>
+        <v>-1.15314090507522</v>
       </c>
       <c r="H7" t="n">
-        <v>9.441105349793643</v>
+        <v>11.14723771527033</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.852054794520548</v>
       </c>
       <c r="D8" t="n">
-        <v>124864.7335022452</v>
+        <v>124755.3145441186</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03327682666928423</v>
+        <v>-0.03588622783839419</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2017170192727317</v>
+        <v>0.208740667019779</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5625264664092703</v>
+        <v>-0.7266885209072331</v>
       </c>
       <c r="H8" t="n">
-        <v>5.784585809638352</v>
+        <v>6.656960766096915</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9287671232876712</v>
       </c>
       <c r="D9" t="n">
-        <v>126193.1080324937</v>
+        <v>126176.5369015856</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07166074184572509</v>
+        <v>-0.07246590519619568</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3406184339497942</v>
+        <v>0.3449171757093097</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.655775923442292</v>
+        <v>-1.728044946501899</v>
       </c>
       <c r="H9" t="n">
-        <v>10.36055346989943</v>
+        <v>10.97324724333234</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.178082191780822</v>
       </c>
       <c r="D10" t="n">
-        <v>127768.4762619836</v>
+        <v>127769.1945475637</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1091270178314292</v>
+        <v>-0.1079304521415401</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4489504926971367</v>
+        <v>0.4398238573457138</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.050466472613039</v>
+        <v>-1.939634743921901</v>
       </c>
       <c r="H10" t="n">
-        <v>10.93343427131677</v>
+        <v>9.973633813997481</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.424657534246575</v>
       </c>
       <c r="D11" t="n">
-        <v>129943.8516773587</v>
+        <v>129908.7980415271</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1700260182731121</v>
+        <v>-0.1859665212257841</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6572434643598732</v>
+        <v>0.7767202762314407</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.101321587510514</v>
+        <v>-2.641894920643084</v>
       </c>
       <c r="H11" t="n">
-        <v>8.575021435578119</v>
+        <v>12.968103125291</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -908,19 +908,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D13" t="n">
-        <v>120387.8114601788</v>
+        <v>120419.1111750395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1021178267708431</v>
+        <v>0.1052671926194933</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1724929010436181</v>
+        <v>0.1490563546392251</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.276971687190033</v>
+        <v>-0.5495603700888898</v>
       </c>
       <c r="H13" t="n">
-        <v>31.28137812836148</v>
+        <v>10.46839658534563</v>
       </c>
       <c r="I13" t="n">
         <v>-0.108616470733998</v>
@@ -986,19 +986,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D15" t="n">
-        <v>120407.0829610114</v>
+        <v>120448.4228209491</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09490439524521606</v>
+        <v>0.09858012152733832</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1743288402885233</v>
+        <v>0.1511755944397735</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.073075421063338</v>
+        <v>-0.5728183654219944</v>
       </c>
       <c r="H15" t="n">
-        <v>27.60095477917561</v>
+        <v>11.61092752899345</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1045600115800595</v>
@@ -1070,19 +1070,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D17" t="n">
-        <v>120276.4866081205</v>
+        <v>120350.8024802794</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07183050638469105</v>
+        <v>0.08082528932054393</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2437851912379566</v>
+        <v>0.1517672747021148</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.412787057058714</v>
+        <v>-0.8535885794979272</v>
       </c>
       <c r="H17" t="n">
-        <v>101.520092269466</v>
+        <v>7.684185731442296</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1415168746347151</v>
@@ -1112,19 +1112,19 @@
         <v>0.04657534246575343</v>
       </c>
       <c r="D18" t="n">
-        <v>120410.8281002275</v>
+        <v>120431.5219054105</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0563012997938548</v>
+        <v>0.05765950261233897</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1676156838451955</v>
+        <v>0.1607735371443851</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9946642466596722</v>
+        <v>-0.6256348215696956</v>
       </c>
       <c r="H18" t="n">
-        <v>12.36417730111494</v>
+        <v>9.098686655553168</v>
       </c>
       <c r="I18" t="n">
         <v>-0.3396381620297346</v>

--- a/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>11.34679545180982</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.632951318127764</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2641061241648734</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.212077930990786</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.374691302351945</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
+++ b/data_processed/20250722/BTCUSDQMOMENT_20250722.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>12.18325821204666</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.6762232433871019</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.451917121526646</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2157933155075947</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.611954445245234</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
